--- a/midterm_marks.xlsx
+++ b/midterm_marks.xlsx
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -1090,31 +1090,32 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1320,32 +1321,32 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1386,13 +1387,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1">
         <v>5</v>
       </c>
       <c r="D15" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1">
         <v>10</v>
@@ -1411,7 +1412,7 @@
       </c>
       <c r="J15" s="1">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1839,8 +1840,7 @@
         <v>5</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="1"/>
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1953,7 +1953,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -1971,8 +1971,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="2"/>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2724,14 +2723,14 @@
         <v>10</v>
       </c>
       <c r="H55" s="1">
+        <v>6</v>
+      </c>
+      <c r="I55" s="1">
         <v>2</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3234,7 +3233,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C71" s="1">
         <v>5</v>
@@ -3259,7 +3258,7 @@
       </c>
       <c r="J71" s="1">
         <f t="shared" si="3"/>
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -5751,10 +5750,10 @@
         <v>20</v>
       </c>
       <c r="E147" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F147" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G147" s="1">
         <v>10</v>
@@ -5767,7 +5766,7 @@
       </c>
       <c r="J147" s="1">
         <f t="shared" si="5"/>
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -5808,32 +5807,32 @@
         <v>147</v>
       </c>
       <c r="B149" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C149" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D149" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E149" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F149" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G149" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H149" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I149" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J149" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -6129,8 +6128,7 @@
         <v>0</v>
       </c>
       <c r="J158" s="1">
-        <f t="shared" ref="J158:J181" si="6">SUM(B158:I158)</f>
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -6162,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="J159" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J159:J181" si="6">SUM(B159:I159)</f>
         <v>60</v>
       </c>
     </row>

--- a/midterm_marks.xlsx
+++ b/midterm_marks.xlsx
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -2024,7 +2024,7 @@
         <v>10</v>
       </c>
       <c r="F34" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G34" s="1">
         <v>10</v>
@@ -2036,8 +2036,8 @@
         <v>0</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="2"/>
-        <v>85</v>
+        <f>SUM(B34:I34)</f>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:10">

--- a/midterm_marks.xlsx
+++ b/midterm_marks.xlsx
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -2318,7 +2318,7 @@
         <v>20</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F43" s="1">
         <v>15</v>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="J43" s="1">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:10">
